--- a/VersionRecords/Version3.0.2/BS权限配置/新增权限配置表.xlsx
+++ b/VersionRecords/Version3.0.2/BS权限配置/新增权限配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\BS权限配置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version3.0.2\BS权限配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>级别</t>
   </si>
@@ -77,6 +77,20 @@
   </si>
   <si>
     <t>自营房屋管家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝--房东贷款--房东贷款放款--创建子菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>report/findPayPlanDate</t>
+  </si>
+  <si>
+    <t>报表导出</t>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +603,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -657,14 +671,30 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version3.0.2/BS权限配置/新增权限配置表.xlsx
+++ b/VersionRecords/Version3.0.2/BS权限配置/新增权限配置表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>级别</t>
   </si>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表管理--房源--创建子菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>report/findRoomPriceReport</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源价格报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +619,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -698,14 +714,30 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
